--- a/analisisHDT6.xlsx
+++ b/analisisHDT6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>n</t>
   </si>
@@ -47,17 +47,41 @@
     <t>La complejidad en tiempo de la operación para determinar si un hashset es subconjunto de otro es O(1).</t>
   </si>
   <si>
-    <t xml:space="preserve">con un coeficiente de correlación R^2=0.9537, sin embargo la ecuacion tiene una pendiente muy baja </t>
+    <t>Metodologia</t>
   </si>
   <si>
-    <t>Esto se observa en la gráfica, ya se adapta bien a una regresión lineal, m=0.0005, por lo que se concluye que es constante</t>
+    <t>Rodrigo Arriaza y Sebastian Galindo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para realizar las pruebas con muchos desarrolladores se uso una clase de prueba, </t>
+  </si>
+  <si>
+    <t>con un metodo que llenaba los sets de desarrolladores web y de desarrolladores java.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Despues de haberlos llenado con n desarrolladores se usaba la funcion set.containsAll(set2).</t>
+  </si>
+  <si>
+    <t>Variando la cantidad de desarrolladores y el tipo de implementacion de Set,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> se utilizo el profiler de Netbeans  y se anotaron los tiempos.</t>
+  </si>
+  <si>
+    <t>Esto se observa en la gráfica, ya que a pesar de adaptarse bien a un regresión lineal,</t>
+  </si>
+  <si>
+    <t>con un coeficiente de correlación R^2=0.9537, la pendiente de dicha función es muy pequeña,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> por lo que se puede concluir que es constante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,21 +89,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -103,10 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,7 +248,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$15</c:f>
+              <c:f>Hoja1!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -246,7 +282,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$15:$D$19</c:f>
+              <c:f>Hoja1!$B$13:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -270,7 +306,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$15:$E$19</c:f>
+              <c:f>Hoja1!$C$13:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -304,7 +340,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$10</c:f>
+              <c:f>Hoja1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -338,7 +374,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$15:$D$19</c:f>
+              <c:f>Hoja1!$B$13:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -362,7 +398,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$10:$E$14</c:f>
+              <c:f>Hoja1!$C$8:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -396,7 +432,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$4</c:f>
+              <c:f>Hoja1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -473,7 +509,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$4:$D$9</c:f>
+              <c:f>Hoja1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -500,7 +536,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$4:$E$9</c:f>
+              <c:f>Hoja1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1422,16 +1458,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1750,186 +1786,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G27"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="E4">
+      <c r="C2">
         <v>0.318</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="C3">
         <v>0.71799999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D6">
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>1000</v>
       </c>
-      <c r="E6">
+      <c r="C4">
         <v>1.45</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>2000</v>
       </c>
-      <c r="E7">
+      <c r="C5">
         <v>1.46</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D8">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>5000</v>
       </c>
-      <c r="E8">
+      <c r="C6">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
         <v>10000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="C7" s="1">
         <v>5.56</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="B8">
         <v>100</v>
       </c>
-      <c r="E10">
+      <c r="C8">
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D11">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>500</v>
       </c>
-      <c r="E11">
+      <c r="C9">
         <v>2.81</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D12">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>1000</v>
       </c>
-      <c r="E12">
+      <c r="C10">
         <v>4.17</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>2000</v>
       </c>
-      <c r="E13">
+      <c r="C11">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>10000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="C12" s="1">
         <v>8.34</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="B13">
         <v>100</v>
       </c>
-      <c r="E15">
+      <c r="C13">
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D16">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>500</v>
       </c>
-      <c r="E16">
+      <c r="C14">
         <v>0.48</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D17">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>1000</v>
       </c>
-      <c r="E17">
+      <c r="C15">
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D18">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>2000</v>
       </c>
-      <c r="E18">
+      <c r="C16">
         <v>1.27</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D19">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>10000</v>
       </c>
-      <c r="E19">
+      <c r="C17">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
